--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.4804804804804805</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09412516886464903</v>
+        <v>0.07275960253178811</v>
       </c>
       <c r="J2" t="n">
-        <v>1233.125659111258</v>
+        <v>936.9867429113434</v>
       </c>
       <c r="K2" t="n">
-        <v>2081177.473057072</v>
+        <v>1175911.324935516</v>
       </c>
       <c r="L2" t="n">
-        <v>1442.62866776488</v>
+        <v>1084.394450804464</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6130511017013734</v>
+        <v>0.7813653099885354</v>
       </c>
     </row>
   </sheetData>
